--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -190,19 +190,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>availableItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>reservedItems</t>
   </si>
   <si>
-    <t>availableItems</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>repository</t>
   </si>
   <si>
     <t>LOG</t>
@@ -211,28 +214,25 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>factory</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>SOURCE</t>
@@ -1743,7 +1743,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1757,7 +1757,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1771,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1785,7 +1785,7 @@
         <v>57</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1796,10 +1796,10 @@
         <v>61</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1807,13 +1807,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1824,10 +1824,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1835,13 +1835,13 @@
         <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1849,13 +1849,13 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1863,13 +1863,13 @@
         <v>36</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1877,13 +1877,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1891,13 +1891,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1905,13 +1905,13 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -1919,13 +1919,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1933,13 +1933,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1947,13 +1947,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1961,13 +1961,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="95">
   <si>
     <t>Class Name</t>
   </si>
@@ -205,36 +207,36 @@
     <t>reservedItems</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>repository</t>
   </si>
   <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>kafka</t>
   </si>
   <si>
     <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
@@ -284,6 +286,27 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -1683,6 +1706,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -1796,10 +2129,10 @@
         <v>61</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -1807,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1827,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1877,13 +2210,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1891,13 +2224,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1905,13 +2238,13 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1919,13 +2252,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -1933,13 +2266,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -1947,7 +2280,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>57</v>
@@ -1961,13 +2294,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -192,19 +192,37 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>availableItems</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>template</t>
@@ -213,28 +231,10 @@
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>factory</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>SOURCE</t>
@@ -2090,7 +2090,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2104,7 +2104,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -2129,10 +2129,10 @@
         <v>61</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2140,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2252,13 +2252,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -2266,13 +2266,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="108">
   <si>
     <t>Class Name</t>
   </si>
@@ -192,51 +192,51 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>reservedItems</t>
   </si>
   <si>
-    <t>private</t>
+    <t>availableItems</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>availableItems</t>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>repository</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>kafka</t>
   </si>
   <si>
     <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
@@ -291,22 +291,61 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>6</t>
+    <t>0</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Product()</t>
+  </si>
+  <si>
+    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>StockAppTest()</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>StockComponentTests()</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderManageService(pl.piomin.stock.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>KafkaContainerDevMode()</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>StockApp()</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -1735,7 +1774,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -1743,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -1767,7 +1806,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1785,7 +1824,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -1821,7 +1860,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -1832,7 +1871,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -1843,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -1854,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1865,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1876,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1887,7 +1926,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -1898,117 +1937,194 @@
         <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>94</v>
+      <c r="C26" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +2192,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2090,7 +2206,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -2104,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -2118,7 +2234,7 @@
         <v>57</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -2129,10 +2245,10 @@
         <v>61</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -2140,13 +2256,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -2154,13 +2270,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -2168,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -2182,13 +2298,13 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2210,13 +2326,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -2224,13 +2340,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -2244,7 +2360,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -2252,13 +2368,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -2266,13 +2382,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2280,7 +2396,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>57</v>
@@ -2294,13 +2410,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="109">
   <si>
     <t>Class Name</t>
   </si>
@@ -291,7 +291,7 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>0</t>
+    <t>39</t>
   </si>
   <si>
     <t>3</t>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>StockAppTest()</t>
@@ -1782,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -1871,7 +1874,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1882,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1893,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1904,7 +1907,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1915,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1926,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1937,7 +1940,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1948,7 +1951,7 @@
         <v>94</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1959,7 +1962,7 @@
         <v>95</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1978,10 +1981,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1992,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -2003,7 +2006,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -2014,7 +2017,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -2022,10 +2025,10 @@
         <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -2036,7 +2039,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -2047,7 +2050,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -2055,10 +2058,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2077,10 +2080,10 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -2102,7 +2105,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -2113,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -2121,10 +2124,10 @@
         <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="108">
   <si>
     <t>Class Name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>protected</t>
   </si>
   <si>
+    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
     <t>toString()</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t>wait()</t>
   </si>
   <si>
+    <t>Product()</t>
+  </si>
+  <si>
     <t>getId()</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>pl.piomin.stock.StockAppTest</t>
   </si>
   <si>
+    <t>StockAppTest()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -147,6 +156,9 @@
     <t>eventReject()</t>
   </si>
   <si>
+    <t>StockComponentTests()</t>
+  </si>
+  <si>
     <t>pl.piomin.stock.service.OrderManageService</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
     <t>confirm(pl.piomin.base.domain.Order)</t>
   </si>
   <si>
+    <t>OrderManageService(pl.piomin.stock.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
     <t>pl.piomin.stock.KafkaContainerDevMode</t>
   </si>
   <si>
@@ -165,12 +180,18 @@
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
+    <t>KafkaContainerDevMode()</t>
+  </si>
+  <si>
     <t>pl.piomin.stock.StockApp</t>
   </si>
   <si>
     <t>onEvent(pl.piomin.base.domain.Order)</t>
   </si>
   <si>
+    <t>StockApp()</t>
+  </si>
+  <si>
     <t>generateData()</t>
   </si>
   <si>
@@ -192,31 +213,40 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>availableItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
-  </si>
-  <si>
-    <t>availableItems</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>factory</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>LOG</t>
@@ -225,18 +255,9 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
@@ -306,25 +327,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>Product()</t>
-  </si>
-  <si>
-    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>StockAppTest()</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>StockComponentTests()</t>
+    <t>4</t>
   </si>
   <si>
     <t>17</t>
@@ -333,22 +342,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>OrderManageService(pl.piomin.stock.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>KafkaContainerDevMode()</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>StockApp()</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -480,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -488,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -516,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -536,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -564,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -586,13 +583,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -600,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -673,102 +670,102 @@
         <v>31</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -779,38 +776,38 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -821,24 +818,24 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
@@ -852,13 +849,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -866,10 +863,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>7</v>
@@ -880,38 +877,38 @@
         <v>35</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>7</v>
@@ -919,10 +916,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -933,38 +930,38 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -975,97 +972,97 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>7</v>
@@ -1073,27 +1070,27 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>40</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>7</v>
@@ -1101,13 +1098,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>7</v>
@@ -1115,27 +1112,27 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>7</v>
@@ -1143,10 +1140,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
@@ -1157,24 +1154,24 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
@@ -1185,38 +1182,38 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1227,13 +1224,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>7</v>
@@ -1241,55 +1238,55 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>7</v>
@@ -1297,24 +1294,24 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -1325,24 +1322,24 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1353,55 +1350,55 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
         <v>7</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -1423,55 +1420,55 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s" s="0">
         <v>7</v>
@@ -1479,38 +1476,38 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
@@ -1535,10 +1532,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
@@ -1549,66 +1546,66 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -1619,41 +1616,41 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>7</v>
@@ -1661,38 +1658,38 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -1703,10 +1700,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
@@ -1717,30 +1714,128 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D96" t="s" s="0">
-        <v>32</v>
+      <c r="D103" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1769,55 +1864,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1841,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1849,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -1860,10 +1955,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -1871,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -1885,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -1896,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -1904,10 +1999,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1915,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +2021,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1937,197 +2032,175 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s" s="0">
         <v>107</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2145,13 +2218,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2175,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -2189,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>11</v>
@@ -2217,13 +2290,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -2231,195 +2304,195 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2437,180 +2510,180 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>4</v>
@@ -2619,32 +2692,32 @@
         <v>10</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>4</v>
@@ -2653,117 +2726,117 @@
         <v>10</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>43</v>
-      </c>
       <c r="E16" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>4</v>
@@ -2772,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2790,19 +2863,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2820,19 +2893,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2850,19 +2923,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2880,19 +2953,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2910,19 +2983,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="107">
   <si>
     <t>Class Name</t>
   </si>
@@ -228,6 +228,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
@@ -240,24 +252,12 @@
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>17</t>
@@ -1922,7 +1919,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2043,21 +2040,21 @@
         <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -2065,10 +2062,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -2076,62 +2073,62 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>105</v>
@@ -2139,68 +2136,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s" s="0">
         <v>106</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2321,10 +2263,10 @@
         <v>68</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -2332,13 +2274,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2346,13 +2288,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2360,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2374,13 +2316,13 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -2388,13 +2330,13 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2402,13 +2344,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2416,13 +2358,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2430,13 +2372,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2444,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2458,13 +2400,13 @@
         <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2472,13 +2414,13 @@
         <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2486,13 +2428,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="109">
   <si>
     <t>Class Name</t>
   </si>
@@ -327,10 +327,16 @@
     <t>23</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>17</t>
@@ -1919,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1941,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1958,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -1963,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>97</v>
@@ -1974,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>97</v>
@@ -1985,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>97</v>
@@ -1996,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>97</v>
@@ -2007,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>97</v>
@@ -2018,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>97</v>
@@ -2029,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>97</v>
@@ -2037,10 +2043,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>97</v>
@@ -2048,101 +2054,178 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>106</v>
+      <c r="C27" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/stock-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="110">
   <si>
     <t>Class Name</t>
   </si>
@@ -213,51 +213,51 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>availableItems</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
+  </si>
+  <si>
     <t>repository</t>
   </si>
   <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>37</t>
@@ -1883,7 +1886,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -1891,7 +1894,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -1899,7 +1902,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1918,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1964,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -2071,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -2093,7 +2096,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -2115,7 +2118,7 @@
         <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -2126,7 +2129,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -2137,7 +2140,7 @@
         <v>48</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -2148,7 +2151,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2162,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -2170,7 +2173,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2195,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -2214,7 +2217,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -2225,7 +2228,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2346,10 +2349,10 @@
         <v>68</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2357,13 +2360,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -2371,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2385,13 +2388,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2399,13 +2402,13 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2413,13 +2416,13 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2427,13 +2430,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2441,13 +2444,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2455,13 +2458,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2469,13 +2472,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2483,13 +2486,13 @@
         <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -2497,13 +2500,13 @@
         <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2511,13 +2514,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
